--- a/xlsx/country_comparison/main_all_by_vote_share.xlsx
+++ b/xlsx/country_comparison/main_all_by_vote_share.xlsx
@@ -424,13 +424,13 @@
         <v>0.710141348263925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.715081283927489</v>
+        <v>0.737664910330388</v>
       </c>
       <c r="F2" t="n">
-        <v>0.520451541731401</v>
+        <v>0.53385089724006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.253531362415017</v>
+        <v>0.258843944782995</v>
       </c>
     </row>
     <row r="3">

--- a/xlsx/country_comparison/main_all_by_vote_share.xlsx
+++ b/xlsx/country_comparison/main_all_by_vote_share.xlsx
@@ -38,10 +38,10 @@
     <t xml:space="preserve">Support for the GCS</t>
   </si>
   <si>
-    <t xml:space="preserve">Global tax on millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharing half of global tax with low-income countries</t>
+    <t xml:space="preserve">Global tax on millionaires funding low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing half of global tax with low-income countries*</t>
   </si>
   <si>
     <t xml:space="preserve">A maximum wealth limit of $10 billion
@@ -55,7 +55,7 @@
     <t xml:space="preserve">[Country]'s foreign aid should be increased</t>
   </si>
   <si>
-    <t xml:space="preserve">Universalist</t>
+    <t xml:space="preserve">Universalist*</t>
   </si>
 </sst>
 </file>
@@ -424,13 +424,13 @@
         <v>0.710141348263925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.737664910330388</v>
+        <v>0.73766490633544</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53385089724006</v>
+        <v>0.533850895943841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.258843944782995</v>
+        <v>0.258843939295</v>
       </c>
     </row>
     <row r="3">
@@ -447,13 +447,13 @@
         <v>0.764379953272718</v>
       </c>
       <c r="E3" t="n">
-        <v>0.854997633553183</v>
+        <v>0.854997633553184</v>
       </c>
       <c r="F3" t="n">
-        <v>0.712021410466865</v>
+        <v>0.712021410135487</v>
       </c>
       <c r="G3" t="n">
-        <v>0.403741890344318</v>
+        <v>0.403741889813897</v>
       </c>
     </row>
     <row r="4">
@@ -470,13 +470,13 @@
         <v>0.450030872314017</v>
       </c>
       <c r="E4" t="n">
-        <v>0.551013826964784</v>
+        <v>0.551013826963912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.674359516426865</v>
+        <v>0.674359515917446</v>
       </c>
       <c r="G4" t="n">
-        <v>0.412540153120082</v>
+        <v>0.41254015312605</v>
       </c>
     </row>
     <row r="5">
@@ -493,13 +493,13 @@
         <v>0.520315008937498</v>
       </c>
       <c r="E5" t="n">
-        <v>0.624799507327709</v>
+        <v>0.624799503634489</v>
       </c>
       <c r="F5" t="n">
-        <v>0.494429490155348</v>
+        <v>0.494429472894787</v>
       </c>
       <c r="G5" t="n">
-        <v>0.234044996721631</v>
+        <v>0.23404499508692</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>0.739285763537315</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8685925020125</v>
+        <v>0.868592499680992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.704604838589909</v>
+        <v>0.704604829299908</v>
       </c>
       <c r="G6" t="n">
-        <v>0.380691704239614</v>
+        <v>0.380691693733942</v>
       </c>
     </row>
     <row r="7">
@@ -530,22 +530,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.930986044797662</v>
+        <v>0.776016187540453</v>
       </c>
       <c r="C7" t="n">
-        <v>0.828869510597079</v>
+        <v>0.622071383510418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.723188145606118</v>
+        <v>0.539250976307011</v>
       </c>
       <c r="E7" t="n">
-        <v>0.921512247273337</v>
+        <v>0.751351630380428</v>
       </c>
       <c r="F7" t="n">
-        <v>0.805384029312697</v>
+        <v>0.635046075691419</v>
       </c>
       <c r="G7" t="n">
-        <v>0.478380403649915</v>
+        <v>0.342526167278441</v>
       </c>
     </row>
     <row r="8">
@@ -562,13 +562,13 @@
         <v>0.263105571022207</v>
       </c>
       <c r="E8" t="n">
-        <v>0.531638828129713</v>
+        <v>0.531638825776625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.491715170668645</v>
+        <v>0.49171515864066</v>
       </c>
       <c r="G8" t="n">
-        <v>0.231137542340891</v>
+        <v>0.231137536079742</v>
       </c>
     </row>
   </sheetData>
